--- a/data/SOAV_measurements_221125.xlsx
+++ b/data/SOAV_measurements_221125.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Dokumenter/GitHub/Lemes-2022-digestate-NH3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au575012\OneDrive - Aarhus universitet\Documents\GitHub\Lemes-2022-digestate-NH3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A53397-8C5E-4274-99D4-FEFA1A881EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19245" yWindow="-765" windowWidth="17640" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19248" yWindow="-768" windowWidth="17640" windowHeight="15432" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -503,20 +502,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -550,7 +549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -563,11 +562,8 @@
       <c r="D3" s="3">
         <v>28.478192109377702</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -580,11 +576,8 @@
       <c r="D4" s="3">
         <v>25.795751233127163</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -597,11 +590,8 @@
       <c r="D5" s="3">
         <v>32.734756575361814</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -614,11 +604,9 @@
       <c r="D6" s="3">
         <v>47.800121605407192</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -631,11 +619,8 @@
       <c r="D7" s="3">
         <v>68.068257611104812</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -648,11 +633,8 @@
       <c r="D8" s="3">
         <v>55.821664636287153</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -665,11 +647,9 @@
       <c r="D9" s="3">
         <v>51.322045408592977</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -682,11 +662,8 @@
       <c r="D10" s="3">
         <v>67.971405163960853</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -699,11 +676,8 @@
       <c r="D11" s="3">
         <v>60.989499842818844</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -716,11 +690,8 @@
       <c r="D12" s="4">
         <v>80.395539475562529</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -733,11 +704,9 @@
       <c r="D13" s="4">
         <v>61.410722044123247</v>
       </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -750,11 +719,8 @@
       <c r="D14" s="4">
         <v>69.675268028400154</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -767,11 +733,8 @@
       <c r="D15" s="4">
         <v>137.32264685890172</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -784,11 +747,9 @@
       <c r="D16" s="4">
         <v>115.82526472472432</v>
       </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -801,11 +762,8 @@
       <c r="D17" s="4">
         <v>154.73251087335197</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -818,11 +776,8 @@
       <c r="D18" s="4">
         <v>178.04078047908121</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -835,12 +790,9 @@
       <c r="D19" s="4">
         <v>185.09830476295085</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -852,9 +804,6 @@
       </c>
       <c r="D20" s="4">
         <v>174.87648874295758</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -864,19 +813,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -890,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44886</v>
       </c>
@@ -904,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
   </sheetData>

--- a/data/SOAV_measurements_221125.xlsx
+++ b/data/SOAV_measurements_221125.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="ChangeLog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="22">
   <si>
     <t>Experiment</t>
   </si>
@@ -109,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,26 +119,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -146,49 +148,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,16 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="27" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -525,7 +504,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
@@ -542,7 +521,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
@@ -550,265 +529,4293 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>28.478192109377702</v>
       </c>
+      <c r="E3" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
         <v>25.795751233127163</v>
       </c>
+      <c r="E4" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
         <v>32.734756575361814</v>
       </c>
+      <c r="E5" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>47.800121605407192</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
         <v>68.068257611104812</v>
       </c>
+      <c r="E7" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
         <v>55.821664636287153</v>
       </c>
+      <c r="E8" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <v>51.322045408592977</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
         <v>67.971405163960853</v>
       </c>
+      <c r="E10" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
         <v>60.989499842818844</v>
       </c>
+      <c r="E11" s="3">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
         <v>80.395539475562529</v>
       </c>
+      <c r="E12" s="4">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
         <v>61.410722044123247</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
         <v>69.675268028400154</v>
       </c>
+      <c r="E14" s="4">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>137.32264685890172</v>
       </c>
+      <c r="E15" s="4">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
         <v>115.82526472472432</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
         <v>154.73251087335197</v>
       </c>
+      <c r="E17" s="4">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
         <v>178.04078047908121</v>
       </c>
+      <c r="E18" s="4">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
         <v>185.09830476295085</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="E19" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
         <v>174.87648874295758</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>24.535502972941114</v>
+      </c>
+      <c r="E21">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>22.593783656876969</v>
+      </c>
+      <c r="E22">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>26.238350549013191</v>
+      </c>
+      <c r="E23">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>47.808342368632104</v>
+      </c>
+      <c r="E24">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>58.951639246862527</v>
+      </c>
+      <c r="E25">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>51.545156663776261</v>
+      </c>
+      <c r="E26">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44.419458054553019</v>
+      </c>
+      <c r="E27">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>57.521539678400138</v>
+      </c>
+      <c r="E28">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>52.615100234593655</v>
+      </c>
+      <c r="E29">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>51.072295350942071</v>
+      </c>
+      <c r="E30">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>32.748268388241954</v>
+      </c>
+      <c r="E31">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
+        <v>39.407047722734717</v>
+      </c>
+      <c r="E32">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>96.525880478792743</v>
+      </c>
+      <c r="E33">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>87.874718357190005</v>
+      </c>
+      <c r="E34">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <v>107.38153126317685</v>
+      </c>
+      <c r="E35">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>154.97818196900101</v>
+      </c>
+      <c r="E36">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>158.59587252651912</v>
+      </c>
+      <c r="E37">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8">
+        <v>119.62087389966965</v>
+      </c>
+      <c r="E38">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>19.249819552437618</v>
+      </c>
+      <c r="E39">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>19.209654271959927</v>
+      </c>
+      <c r="E40">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8">
+        <v>23.053682396593587</v>
+      </c>
+      <c r="E41">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>40.730020543855161</v>
+      </c>
+      <c r="E42">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>49.147678572961503</v>
+      </c>
+      <c r="E43">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="8">
+        <v>43.451504449771498</v>
+      </c>
+      <c r="E44">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>39.193226720487516</v>
+      </c>
+      <c r="E45">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>54.473794187031871</v>
+      </c>
+      <c r="E46">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>48.107694394171595</v>
+      </c>
+      <c r="E47">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>26.826927686382064</v>
+      </c>
+      <c r="E48">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8">
+        <v>16.015965843687844</v>
+      </c>
+      <c r="E49">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>21.879150351818879</v>
+      </c>
+      <c r="E50">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>98.073332114268283</v>
+      </c>
+      <c r="E51">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>50.209771102537388</v>
+      </c>
+      <c r="E52">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="8">
+        <v>62.186423181294849</v>
+      </c>
+      <c r="E53">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>129.91628394564083</v>
+      </c>
+      <c r="E54">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>135.87578838155002</v>
+      </c>
+      <c r="E55">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="8">
+        <v>88.547232634843738</v>
+      </c>
+      <c r="E56">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>16.686070202777721</v>
+      </c>
+      <c r="E57">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>16.140507557493308</v>
+      </c>
+      <c r="E58">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <v>18.286132716039187</v>
+      </c>
+      <c r="E59">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>37.374517133756235</v>
+      </c>
+      <c r="E60">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="8">
+        <v>44.851385620810262</v>
+      </c>
+      <c r="E61">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8">
+        <v>35.621484668117375</v>
+      </c>
+      <c r="E62">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
+        <v>39.193226720487516</v>
+      </c>
+      <c r="E63">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
+      <c r="D64" s="8">
+        <v>50.360422930596357</v>
+      </c>
+      <c r="E64">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3</v>
+      </c>
+      <c r="D65" s="8">
+        <v>41.396159487572326</v>
+      </c>
+      <c r="E65">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
+        <v>21.172085814643829</v>
+      </c>
+      <c r="E66">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="8">
+        <v>13.359837310673452</v>
+      </c>
+      <c r="E67">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="8">
+        <v>16.974549562026773</v>
+      </c>
+      <c r="E68">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>35.595998726277514</v>
+      </c>
+      <c r="E69">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2</v>
+      </c>
+      <c r="D70" s="8">
+        <v>34.368071596915001</v>
+      </c>
+      <c r="E70">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3</v>
+      </c>
+      <c r="D71" s="8">
+        <v>38.501323596286021</v>
+      </c>
+      <c r="E71">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>106.31939728508458</v>
+      </c>
+      <c r="E72">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="D73" s="8">
+        <v>100.10787208297035</v>
+      </c>
+      <c r="E73">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="8">
+        <v>53.621829262224509</v>
+      </c>
+      <c r="E74">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8">
+        <v>11.299582396538106</v>
+      </c>
+      <c r="E75">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2</v>
+      </c>
+      <c r="D76" s="8">
+        <v>12.02675158988235</v>
+      </c>
+      <c r="E76">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3">
+        <v>3</v>
+      </c>
+      <c r="D77" s="8">
+        <v>15.251437328008237</v>
+      </c>
+      <c r="E77">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>29.52788883517827</v>
+      </c>
+      <c r="E78">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2</v>
+      </c>
+      <c r="D79" s="8">
+        <v>37.58795454110718</v>
+      </c>
+      <c r="E79">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3</v>
+      </c>
+      <c r="D80" s="8">
+        <v>33.537463716497001</v>
+      </c>
+      <c r="E80">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8">
+        <v>29.614802213361362</v>
+      </c>
+      <c r="E81">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2</v>
+      </c>
+      <c r="D82" s="8">
+        <v>44.118392849172778</v>
+      </c>
+      <c r="E82">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3</v>
+      </c>
+      <c r="D83" s="8">
+        <v>39.038773508594183</v>
+      </c>
+      <c r="E83">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8">
+        <v>15.806927245580439</v>
+      </c>
+      <c r="E84">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+      <c r="D85" s="8">
+        <v>10.885780741810311</v>
+      </c>
+      <c r="E85">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="8">
+        <v>11.358071749300601</v>
+      </c>
+      <c r="E86">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8">
+        <v>25.306822515880786</v>
+      </c>
+      <c r="E87">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2</v>
+      </c>
+      <c r="D88" s="8">
+        <v>22.661455794803366</v>
+      </c>
+      <c r="E88">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3</v>
+      </c>
+      <c r="D89" s="8">
+        <v>24.839782815771759</v>
+      </c>
+      <c r="E89">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="8">
+        <v>71.557976462375606</v>
+      </c>
+      <c r="E90">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2</v>
+      </c>
+      <c r="D91" s="8">
+        <v>65.483770007446651</v>
+      </c>
+      <c r="E91">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+      <c r="D92" s="8">
+        <v>29.695062152434993</v>
+      </c>
+      <c r="E92">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8">
+        <v>6.2085742946970015</v>
+      </c>
+      <c r="E93">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2</v>
+      </c>
+      <c r="D94" s="8">
+        <v>6.5142464640486066</v>
+      </c>
+      <c r="E94">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="3">
+        <v>3</v>
+      </c>
+      <c r="D95" s="8">
+        <v>7.7985722141018723</v>
+      </c>
+      <c r="E95">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8">
+        <v>26.900446538741697</v>
+      </c>
+      <c r="E96">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+      <c r="D97" s="8">
+        <v>16.215396173107585</v>
+      </c>
+      <c r="E97">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3</v>
+      </c>
+      <c r="D98" s="8">
+        <v>14.667955657550547</v>
+      </c>
+      <c r="E98">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8">
+        <v>13.28885061163194</v>
+      </c>
+      <c r="E99">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>19.456444545418588</v>
+      </c>
+      <c r="E100">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="8">
+        <v>16.158148689777491</v>
+      </c>
+      <c r="E101">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="8">
+        <v>10.583763083382177</v>
+      </c>
+      <c r="E102">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2</v>
+      </c>
+      <c r="D103" s="8">
+        <v>7.4152700456405443</v>
+      </c>
+      <c r="E103">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+      <c r="D104" s="8">
+        <v>9.8822288120476927</v>
+      </c>
+      <c r="E104">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8">
+        <v>21.361850786055925</v>
+      </c>
+      <c r="E105">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2</v>
+      </c>
+      <c r="D106" s="8">
+        <v>20.245880558226908</v>
+      </c>
+      <c r="E106">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="3">
+        <v>3</v>
+      </c>
+      <c r="D107" s="8">
+        <v>20.773143176426832</v>
+      </c>
+      <c r="E107">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="8">
+        <v>45.680451992232214</v>
+      </c>
+      <c r="E108">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2</v>
+      </c>
+      <c r="D109" s="8">
+        <v>39.745994891304008</v>
+      </c>
+      <c r="E109">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3">
+        <v>3</v>
+      </c>
+      <c r="D110" s="8">
+        <v>19.187844418123614</v>
+      </c>
+      <c r="E110">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="8">
+        <v>7.0596732418319981</v>
+      </c>
+      <c r="E111">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" s="8">
+        <v>7.1721576673682765</v>
+      </c>
+      <c r="E112">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="8">
+        <v>9.0151851620628687</v>
+      </c>
+      <c r="E113">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="8">
+        <v>24.065445107586974</v>
+      </c>
+      <c r="E114">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2</v>
+      </c>
+      <c r="D115" s="8">
+        <v>28.570550351558499</v>
+      </c>
+      <c r="E115">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" s="8">
+        <v>23.560787724036452</v>
+      </c>
+      <c r="E116">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117" s="8">
+        <v>24.582889246963667</v>
+      </c>
+      <c r="E117">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="3">
+        <v>2</v>
+      </c>
+      <c r="D118" s="8">
+        <v>32.737625728796161</v>
+      </c>
+      <c r="E118">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3</v>
+      </c>
+      <c r="D119" s="8">
+        <v>27.912434620347195</v>
+      </c>
+      <c r="E119">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="8">
+        <v>8.5715602680561087</v>
+      </c>
+      <c r="E120">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3">
+        <v>2</v>
+      </c>
+      <c r="D121" s="8">
+        <v>7.379460166191576</v>
+      </c>
+      <c r="E121">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+      <c r="D122" s="8">
+        <v>8.6523195265597792</v>
+      </c>
+      <c r="E122">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="8">
+        <v>16.940313359760829</v>
+      </c>
+      <c r="E123">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2</v>
+      </c>
+      <c r="D124" s="8">
+        <v>14.094382394624976</v>
+      </c>
+      <c r="E124">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3</v>
+      </c>
+      <c r="D125" s="8">
+        <v>17.732827628448621</v>
+      </c>
+      <c r="E125">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="8">
+        <v>30.504602818159245</v>
+      </c>
+      <c r="E126">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2</v>
+      </c>
+      <c r="D127" s="8">
+        <v>28.845208573332016</v>
+      </c>
+      <c r="E127">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
+      <c r="D128" s="8">
+        <v>19.60779473250334</v>
+      </c>
+      <c r="E128">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8">
+        <v>4.7862340079223404</v>
+      </c>
+      <c r="E129">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2</v>
+      </c>
+      <c r="D130" s="8">
+        <v>4.330156784872238</v>
+      </c>
+      <c r="E130">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3">
+        <v>3</v>
+      </c>
+      <c r="D131" s="8">
+        <v>6.7740456576930859</v>
+      </c>
+      <c r="E131">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="8">
+        <v>18.89254375219387</v>
+      </c>
+      <c r="E132">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="8">
+        <v>21.866898831781594</v>
+      </c>
+      <c r="E133">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134" s="8">
+        <v>19.965857504255272</v>
+      </c>
+      <c r="E134">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
+      <c r="D135" s="8">
+        <v>19.718825147178283</v>
+      </c>
+      <c r="E135">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2</v>
+      </c>
+      <c r="D136" s="8">
+        <v>26.955136698435851</v>
+      </c>
+      <c r="E136">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3</v>
+      </c>
+      <c r="D137" s="8">
+        <v>23.121667927343736</v>
+      </c>
+      <c r="E137">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="8">
+        <v>7.3167764221998155</v>
+      </c>
+      <c r="E138">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2</v>
+      </c>
+      <c r="D139" s="8">
+        <v>5.3676508119518909</v>
+      </c>
+      <c r="E139">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3">
+        <v>3</v>
+      </c>
+      <c r="D140" s="8">
+        <v>5.9155318052915185</v>
+      </c>
+      <c r="E140">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+      <c r="D141" s="8">
+        <v>12.979264659283082</v>
+      </c>
+      <c r="E141">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3">
+        <v>2</v>
+      </c>
+      <c r="D142" s="8">
+        <v>11.839946085187961</v>
+      </c>
+      <c r="E142">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3</v>
+      </c>
+      <c r="D143" s="8">
+        <v>12.121708829516663</v>
+      </c>
+      <c r="E143">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
+      <c r="D144" s="8">
+        <v>23.039491350082542</v>
+      </c>
+      <c r="E144">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2</v>
+      </c>
+      <c r="D145" s="8">
+        <v>24.654740025963754</v>
+      </c>
+      <c r="E145">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="3">
+        <v>3</v>
+      </c>
+      <c r="D146" s="8">
+        <v>15.431413642285937</v>
+      </c>
+      <c r="E146">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D147" s="8">
+        <v>3.9714600083047382</v>
+      </c>
+      <c r="E147">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="3">
+        <v>2</v>
+      </c>
+      <c r="D148" s="8">
+        <v>3.9719458972120285</v>
+      </c>
+      <c r="E148">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3</v>
+      </c>
+      <c r="D149" s="8">
+        <v>4.0581202399066481</v>
+      </c>
+      <c r="E149">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="8">
+        <v>15.017595916845423</v>
+      </c>
+      <c r="E150">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="3">
+        <v>2</v>
+      </c>
+      <c r="D151" s="8">
+        <v>15.748756001569063</v>
+      </c>
+      <c r="E151">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="3">
+        <v>3</v>
+      </c>
+      <c r="D152" s="8">
+        <v>14.481301024751691</v>
+      </c>
+      <c r="E152">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="8">
+        <v>15.264727148243347</v>
+      </c>
+      <c r="E153">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2</v>
+      </c>
+      <c r="D154" s="8">
+        <v>20.386042280829223</v>
+      </c>
+      <c r="E154">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3</v>
+      </c>
+      <c r="D155" s="8">
+        <v>19.023403417491895</v>
+      </c>
+      <c r="E155">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="8">
+        <v>4.3008509829998784</v>
+      </c>
+      <c r="E156">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>2</v>
+      </c>
+      <c r="D157" s="8">
+        <v>4.9428039622670035</v>
+      </c>
+      <c r="E157">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>3</v>
+      </c>
+      <c r="D158" s="8">
+        <v>5.6056542915218079</v>
+      </c>
+      <c r="E158">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="8">
+        <v>20.329588964455485</v>
+      </c>
+      <c r="E159">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2</v>
+      </c>
+      <c r="D160" s="8">
+        <v>10.824672816977607</v>
+      </c>
+      <c r="E160">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="3">
+        <v>3</v>
+      </c>
+      <c r="D161" s="8">
+        <v>10.85369404842162</v>
+      </c>
+      <c r="E161">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="8">
+        <v>16.796371694795411</v>
+      </c>
+      <c r="E162">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="3">
+        <v>2</v>
+      </c>
+      <c r="D163" s="8">
+        <v>18.49253820525821</v>
+      </c>
+      <c r="E163">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="3">
+        <v>3</v>
+      </c>
+      <c r="D164" s="8">
+        <v>15.656552986714217</v>
+      </c>
+      <c r="E164">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="8">
+        <v>2.846859708602012</v>
+      </c>
+      <c r="E165">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2</v>
+      </c>
+      <c r="D166" s="8">
+        <v>2.9663857859163816</v>
+      </c>
+      <c r="E166">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3</v>
+      </c>
+      <c r="D167" s="8">
+        <v>3.4632472530404721</v>
+      </c>
+      <c r="E167">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="8">
+        <v>10.684461877112838</v>
+      </c>
+      <c r="E168">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="3">
+        <v>2</v>
+      </c>
+      <c r="D169" s="8">
+        <v>12.686442915919496</v>
+      </c>
+      <c r="E169">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="3">
+        <v>3</v>
+      </c>
+      <c r="D170" s="8">
+        <v>11.999275900592176</v>
+      </c>
+      <c r="E170">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="8">
+        <v>11.878389107119798</v>
+      </c>
+      <c r="E171">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="3">
+        <v>2</v>
+      </c>
+      <c r="D172" s="8">
+        <v>17.496242165050017</v>
+      </c>
+      <c r="E172">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="3">
+        <v>3</v>
+      </c>
+      <c r="D173" s="8">
+        <v>16.258606842325321</v>
+      </c>
+      <c r="E173">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="8">
+        <v>2.7517952084131601</v>
+      </c>
+      <c r="E174">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>2</v>
+      </c>
+      <c r="D175" s="8">
+        <v>3.4780079978879304</v>
+      </c>
+      <c r="E175">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>3</v>
+      </c>
+      <c r="D176" s="8">
+        <v>5.1109544150812614</v>
+      </c>
+      <c r="E176">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="8">
+        <v>7.3067707397780808</v>
+      </c>
+      <c r="E177">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2</v>
+      </c>
+      <c r="D178" s="8">
+        <v>8.4814154714608918</v>
+      </c>
+      <c r="E178">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="3">
+        <v>3</v>
+      </c>
+      <c r="D179" s="8">
+        <v>8.6388706464885505</v>
+      </c>
+      <c r="E179">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="8">
+        <v>15.666836321302299</v>
+      </c>
+      <c r="E180">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="3">
+        <v>2</v>
+      </c>
+      <c r="D181" s="8">
+        <v>15.462654041671517</v>
+      </c>
+      <c r="E181">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="3">
+        <v>3</v>
+      </c>
+      <c r="D182" s="8">
+        <v>12.976865162615347</v>
+      </c>
+      <c r="E182">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8">
+        <v>3.3178037593874539</v>
+      </c>
+      <c r="E183">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="3">
+        <v>2</v>
+      </c>
+      <c r="D184" s="8">
+        <v>2.2777487199796678</v>
+      </c>
+      <c r="E184">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="3">
+        <v>3</v>
+      </c>
+      <c r="D185" s="8">
+        <v>2.5008835476899955</v>
+      </c>
+      <c r="E185">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="8">
+        <v>7.6614235724126587</v>
+      </c>
+      <c r="E186">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="3">
+        <v>2</v>
+      </c>
+      <c r="D187" s="8">
+        <v>10.119863173659244</v>
+      </c>
+      <c r="E187">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="3">
+        <v>3</v>
+      </c>
+      <c r="D188" s="8">
+        <v>10.720912617389185</v>
+      </c>
+      <c r="E188">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="8">
+        <v>11.254279424610672</v>
+      </c>
+      <c r="E189">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="3">
+        <v>2</v>
+      </c>
+      <c r="D190" s="8">
+        <v>16.153773414545025</v>
+      </c>
+      <c r="E190">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="3">
+        <v>3</v>
+      </c>
+      <c r="D191" s="8">
+        <v>15.611912754457702</v>
+      </c>
+      <c r="E191">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="8">
+        <v>2.7235366976413893</v>
+      </c>
+      <c r="E192">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="3">
+        <v>2</v>
+      </c>
+      <c r="D193" s="8">
+        <v>4.7971047571218106</v>
+      </c>
+      <c r="E193">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="3">
+        <v>3</v>
+      </c>
+      <c r="D194" s="8">
+        <v>3.7892654996395501</v>
+      </c>
+      <c r="E194">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="8">
+        <v>5.1362801089792534</v>
+      </c>
+      <c r="E195">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2</v>
+      </c>
+      <c r="D196" s="8">
+        <v>4.986927239166512</v>
+      </c>
+      <c r="E196">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="3">
+        <v>3</v>
+      </c>
+      <c r="D197" s="8">
+        <v>7.9163580251401973</v>
+      </c>
+      <c r="E197">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="8">
+        <v>12.680027522236111</v>
+      </c>
+      <c r="E198">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="3">
+        <v>2</v>
+      </c>
+      <c r="D199" s="8">
+        <v>12.862130278752968</v>
+      </c>
+      <c r="E199">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="3">
+        <v>3</v>
+      </c>
+      <c r="D200" s="8">
+        <v>14.717667945866507</v>
+      </c>
+      <c r="E200">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="8">
+        <v>2.8283243609823927</v>
+      </c>
+      <c r="E201">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="3">
+        <v>2</v>
+      </c>
+      <c r="D202" s="8">
+        <v>2.3711489316383823</v>
+      </c>
+      <c r="E202">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="3">
+        <v>3</v>
+      </c>
+      <c r="D203" s="8">
+        <v>3.8005096575145867</v>
+      </c>
+      <c r="E203">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="8">
+        <v>1.9526643403007065</v>
+      </c>
+      <c r="E204">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="3">
+        <v>2</v>
+      </c>
+      <c r="D205" s="8">
+        <v>1.7984693426217291</v>
+      </c>
+      <c r="E205">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="3">
+        <v>3</v>
+      </c>
+      <c r="D206" s="8">
+        <v>4.8968459497444252</v>
+      </c>
+      <c r="E206">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1</v>
+      </c>
+      <c r="D207" s="8">
+        <v>4.3509912096163781</v>
+      </c>
+      <c r="E207">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="3">
+        <v>2</v>
+      </c>
+      <c r="D208" s="8">
+        <v>11.868990752561556</v>
+      </c>
+      <c r="E208">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="3">
+        <v>3</v>
+      </c>
+      <c r="D209" s="8">
+        <v>12.444292963381496</v>
+      </c>
+      <c r="E209">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="3">
+        <v>1</v>
+      </c>
+      <c r="D210" s="8">
+        <v>1.8968087786802421</v>
+      </c>
+      <c r="E210">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="3">
+        <v>2</v>
+      </c>
+      <c r="D211" s="8">
+        <v>1.1583242296748582</v>
+      </c>
+      <c r="E211">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="3">
+        <v>3</v>
+      </c>
+      <c r="D212" s="8">
+        <v>2.9037125716321173</v>
+      </c>
+      <c r="E212">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1</v>
+      </c>
+      <c r="D213" s="8">
+        <v>0.51545529138079771</v>
+      </c>
+      <c r="E213">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="3">
+        <v>2</v>
+      </c>
+      <c r="D214" s="8">
+        <v>2.0211526701794367</v>
+      </c>
+      <c r="E214">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="3">
+        <v>3</v>
+      </c>
+      <c r="D215" s="8">
+        <v>2.0502363520157556</v>
+      </c>
+      <c r="E215">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="3">
+        <v>1</v>
+      </c>
+      <c r="D216" s="8">
+        <v>8.9052077726842018</v>
+      </c>
+      <c r="E216">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="3">
+        <v>2</v>
+      </c>
+      <c r="D217" s="8">
+        <v>10.420499465930131</v>
+      </c>
+      <c r="E217">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="3">
+        <v>3</v>
+      </c>
+      <c r="D218" s="8">
+        <v>9.1956437513667826</v>
+      </c>
+      <c r="E218">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="3">
+        <v>1</v>
+      </c>
+      <c r="D219" s="8">
+        <v>3.4527970134177459</v>
+      </c>
+      <c r="E219">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="3">
+        <v>2</v>
+      </c>
+      <c r="D220" s="8">
+        <v>1.7933415427637951</v>
+      </c>
+      <c r="E220">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="3">
+        <v>3</v>
+      </c>
+      <c r="D221" s="8">
+        <v>0.92322324410769663</v>
+      </c>
+      <c r="E221">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1</v>
+      </c>
+      <c r="D222" s="8">
+        <v>1.6401082800748872</v>
+      </c>
+      <c r="E222">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="3">
+        <v>2</v>
+      </c>
+      <c r="D223" s="8">
+        <v>1.5168503617281919</v>
+      </c>
+      <c r="E223">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="3">
+        <v>3</v>
+      </c>
+      <c r="D224" s="8">
+        <v>2.771217487983852</v>
+      </c>
+      <c r="E224">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1</v>
+      </c>
+      <c r="D225" s="8">
+        <v>7.9801648717066467</v>
+      </c>
+      <c r="E225">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="3">
+        <v>2</v>
+      </c>
+      <c r="D226" s="8">
+        <v>7.7831962213250172</v>
+      </c>
+      <c r="E226">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="3">
+        <v>3</v>
+      </c>
+      <c r="D227" s="8">
+        <v>7.2574434365367182</v>
+      </c>
+      <c r="E227">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1</v>
+      </c>
+      <c r="D228" s="8">
+        <v>2.8055921015951784</v>
+      </c>
+      <c r="E228">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="3">
+        <v>2</v>
+      </c>
+      <c r="D229" s="8">
+        <v>0.66992637248411646</v>
+      </c>
+      <c r="E229">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="3">
+        <v>3</v>
+      </c>
+      <c r="D230" s="8">
+        <v>0.40984148249884633</v>
+      </c>
+      <c r="E230">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1</v>
+      </c>
+      <c r="D231" s="8">
+        <v>2.1738247478064725</v>
+      </c>
+      <c r="E231">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="3">
+        <v>2</v>
+      </c>
+      <c r="D232" s="8">
+        <v>0.66136139729765175</v>
+      </c>
+      <c r="E232">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="3">
+        <v>3</v>
+      </c>
+      <c r="D233" s="8">
+        <v>0.99688290526242485</v>
+      </c>
+      <c r="E233">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1</v>
+      </c>
+      <c r="D234" s="8">
+        <v>6.1488196522595384</v>
+      </c>
+      <c r="E234">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="3">
+        <v>2</v>
+      </c>
+      <c r="D235" s="8">
+        <v>4.4610668003023264</v>
+      </c>
+      <c r="E235">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="3">
+        <v>3</v>
+      </c>
+      <c r="D236" s="8">
+        <v>3.2497724860749306</v>
+      </c>
+      <c r="E236">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1</v>
+      </c>
+      <c r="D237" s="8">
+        <v>2.1803035589021347</v>
+      </c>
+      <c r="E237">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="3">
+        <v>2</v>
+      </c>
+      <c r="D238" s="8">
+        <v>0.78937784348056306</v>
+      </c>
+      <c r="E238">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="3">
+        <v>3</v>
+      </c>
+      <c r="D239" s="8">
+        <v>1.4531977347445189</v>
+      </c>
+      <c r="E239">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="3">
+        <v>1</v>
+      </c>
+      <c r="D240" s="8">
+        <v>1.600564033855008</v>
+      </c>
+      <c r="E240">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="3">
+        <v>2</v>
+      </c>
+      <c r="D241" s="8">
+        <v>1.4353177390859164</v>
+      </c>
+      <c r="E241">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="3">
+        <v>3</v>
+      </c>
+      <c r="D242" s="8">
+        <v>1.7587438960896047</v>
+      </c>
+      <c r="E242">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1</v>
+      </c>
+      <c r="D243" s="8">
+        <v>4.8462834022535741</v>
+      </c>
+      <c r="E243">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="3">
+        <v>2</v>
+      </c>
+      <c r="D244" s="8">
+        <v>4.1330840269895015</v>
+      </c>
+      <c r="E244">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="3">
+        <v>3</v>
+      </c>
+      <c r="D245" s="8">
+        <v>3.2348183347961119</v>
+      </c>
+      <c r="E245">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="3">
+        <v>1</v>
+      </c>
+      <c r="D246" s="8">
+        <v>2.2375418737447714</v>
+      </c>
+      <c r="E246">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="3">
+        <v>2</v>
+      </c>
+      <c r="D247" s="8">
+        <v>0.92980506788688211</v>
+      </c>
+      <c r="E247">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="3">
+        <v>3</v>
+      </c>
+      <c r="D248" s="8">
+        <v>0.99810845259612246</v>
+      </c>
+      <c r="E248">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1</v>
+      </c>
+      <c r="D249" s="8">
+        <v>1.2702313938490108</v>
+      </c>
+      <c r="E249">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="3">
+        <v>2</v>
+      </c>
+      <c r="D250" s="8">
+        <v>0.55762126350520758</v>
+      </c>
+      <c r="E250">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="3">
+        <v>3</v>
+      </c>
+      <c r="D251" s="8">
+        <v>1.2858687546273289</v>
+      </c>
+      <c r="E251">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" s="3">
+        <v>1</v>
+      </c>
+      <c r="D252" s="8">
+        <v>3.7925156475161832</v>
+      </c>
+      <c r="E252">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="3">
+        <v>2</v>
+      </c>
+      <c r="D253" s="8">
+        <v>2.9152310585744283</v>
+      </c>
+      <c r="E253">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="3">
+        <v>3</v>
+      </c>
+      <c r="D254" s="8">
+        <v>3.6138742375754807</v>
+      </c>
+      <c r="E254">
+        <v>30.94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -840,7 +4847,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>44886</v>
       </c>
       <c r="B2" t="s">
@@ -854,7 +4861,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
